--- a/cleaned_HC 11.1.xlsx
+++ b/cleaned_HC 11.1.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3026bca469c91ae/Documents/GH_PAI789/policy-data-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{130B188E-173F-4C0D-8431-5210A8424475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BF9FD2-33BF-4221-93D0-B3B591705960}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{130B188E-173F-4C0D-8431-5210A8424475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F93E23B7-5BD0-4D38-B6E5-BB1816BC7C86}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>New England</t>
   </si>
@@ -161,6 +175,12 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>Any household energy insecurity(%)</t>
+  </si>
+  <si>
+    <t>Receiving disconnect or delivery stop notice%</t>
   </si>
 </sst>
 </file>
@@ -641,11 +661,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,9 +674,10 @@
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -669,8 +690,14 @@
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +711,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -698,7 +725,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -712,7 +739,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +753,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -740,7 +767,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -754,7 +781,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -768,7 +795,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -782,7 +809,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -796,7 +823,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -810,7 +837,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -824,7 +851,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -838,7 +865,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -852,7 +879,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -866,7 +893,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1259,4 +1286,18 @@
   <pageMargins left="0.7" right="0.7" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <pageSetup scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22854228-B87E-49D8-B77A-80D9DE63B456}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>